--- a/StructureDefinition-cdm-match-location.xlsx
+++ b/StructureDefinition-cdm-match-location.xlsx
@@ -338,9 +338,6 @@
     <t>References matched source locations. Links a CDMMatchLocation to one or more source CDMLocation resources that refer the same physical location.</t>
   </si>
   <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
     <t>Location.extension.id</t>
   </si>
   <si>
@@ -373,6 +370,9 @@
   </si>
   <si>
     <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>Location.extension.extension.id</t>
@@ -2312,7 +2312,7 @@
         <v>101</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2412,10 +2412,10 @@
         <v>48</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2466,22 +2466,22 @@
         <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2560,7 +2560,7 @@
         <v>95</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>38</v>
@@ -2569,7 +2569,7 @@
         <v>96</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>39</v>
@@ -2592,10 +2592,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>38</v>
@@ -2617,13 +2617,13 @@
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2674,7 +2674,7 @@
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>39</v>
@@ -2723,10 +2723,10 @@
         <v>48</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2777,22 +2777,22 @@
         <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
@@ -2871,7 +2871,7 @@
         <v>95</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>38</v>
@@ -2880,7 +2880,7 @@
         <v>96</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>39</v>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>131</v>
@@ -3245,7 +3245,7 @@
         <v>133</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3296,7 +3296,7 @@
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
@@ -3319,7 +3319,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>134</v>
@@ -3350,7 +3350,7 @@
         <v>136</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3401,7 +3401,7 @@
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>137</v>
@@ -3455,7 +3455,7 @@
         <v>139</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3506,7 +3506,7 @@
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>140</v>
@@ -3560,7 +3560,7 @@
         <v>142</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3611,7 +3611,7 @@
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>39</v>
@@ -3634,7 +3634,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>143</v>
@@ -3665,7 +3665,7 @@
         <v>145</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3716,7 +3716,7 @@
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>146</v>
@@ -3767,10 +3767,10 @@
         <v>147</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3821,7 +3821,7 @@
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -3870,10 +3870,10 @@
         <v>48</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3924,22 +3924,22 @@
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
@@ -4018,7 +4018,7 @@
         <v>95</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>38</v>
@@ -4027,7 +4027,7 @@
         <v>96</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -4078,10 +4078,10 @@
         <v>150</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4132,7 +4132,7 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
@@ -4181,10 +4181,10 @@
         <v>48</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4235,22 +4235,22 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
@@ -4329,7 +4329,7 @@
         <v>95</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>38</v>
@@ -4338,7 +4338,7 @@
         <v>96</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
@@ -4703,7 +4703,7 @@
         <v>158</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4754,7 +4754,7 @@
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>39</v>
@@ -4808,7 +4808,7 @@
         <v>159</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4859,7 +4859,7 @@
         <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>39</v>
@@ -4913,7 +4913,7 @@
         <v>160</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4964,7 +4964,7 @@
         <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
@@ -5641,10 +5641,10 @@
         <v>48</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5695,22 +5695,22 @@
         <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
@@ -5791,7 +5791,7 @@
         <v>95</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>38</v>
@@ -5800,7 +5800,7 @@
         <v>96</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>39</v>
@@ -5815,7 +5815,7 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>38</v>
@@ -6653,7 +6653,7 @@
         <v>59</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>237</v>
@@ -7634,10 +7634,10 @@
         <v>48</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7688,22 +7688,22 @@
         <v>38</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
@@ -7793,7 +7793,7 @@
         <v>38</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>39</v>
@@ -7808,7 +7808,7 @@
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
@@ -8575,10 +8575,10 @@
         <v>48</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8629,22 +8629,22 @@
         <v>38</v>
       </c>
       <c r="AE70" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>38</v>
@@ -8734,7 +8734,7 @@
         <v>38</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>39</v>
@@ -8749,7 +8749,7 @@
         <v>98</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>38</v>
@@ -9371,7 +9371,7 @@
         <v>59</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>38</v>
@@ -9476,7 +9476,7 @@
         <v>59</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>38</v>

--- a/StructureDefinition-cdm-match-location.xlsx
+++ b/StructureDefinition-cdm-match-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-location.xlsx
+++ b/StructureDefinition-cdm-match-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-location.xlsx
+++ b/StructureDefinition-cdm-match-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-location.xlsx
+++ b/StructureDefinition-cdm-match-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-location.xlsx
+++ b/StructureDefinition-cdm-match-location.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-location.xlsx
+++ b/StructureDefinition-cdm-match-location.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-location.xlsx
+++ b/StructureDefinition-cdm-match-location.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1556,39 +1556,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="47.0390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.53125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.53515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="139.51953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="84.6796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="67.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="67.80078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="38.3125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="38.31640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-cdm-match-location.xlsx
+++ b/StructureDefinition-cdm-match-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-location.xlsx
+++ b/StructureDefinition-cdm-match-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-location.xlsx
+++ b/StructureDefinition-cdm-match-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-location.xlsx
+++ b/StructureDefinition-cdm-match-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-location.xlsx
+++ b/StructureDefinition-cdm-match-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-location.xlsx
+++ b/StructureDefinition-cdm-match-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-location.xlsx
+++ b/StructureDefinition-cdm-match-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-location.xlsx
+++ b/StructureDefinition-cdm-match-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-location.xlsx
+++ b/StructureDefinition-cdm-match-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-location.xlsx
+++ b/StructureDefinition-cdm-match-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-location.xlsx
+++ b/StructureDefinition-cdm-match-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-location.xlsx
+++ b/StructureDefinition-cdm-match-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-location.xlsx
+++ b/StructureDefinition-cdm-match-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-location.xlsx
+++ b/StructureDefinition-cdm-match-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-location.xlsx
+++ b/StructureDefinition-cdm-match-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="398">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -262,183 +262,187 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Location.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Location.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Location.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Location.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Location.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>Location.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>seeAlso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/see-also}
+</t>
+  </si>
+  <si>
+    <t>References matched source locations. Links a CDMMatchLocation to one or more source CDMLocation resources that refer the same physical location.</t>
+  </si>
+  <si>
+    <t>Location.extension.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Location.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Location.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Location.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Location.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Location.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Location.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>seeAlso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/see-also}
-</t>
-  </si>
-  <si>
-    <t>References matched source locations. Links a CDMMatchLocation to one or more source CDMLocation resources that refer the same physical location.</t>
-  </si>
-  <si>
-    <t>Location.extension.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2669,13 +2673,13 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2726,7 +2730,7 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
@@ -2741,7 +2745,7 @@
         <v>72</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>72</v>
@@ -2749,7 +2753,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2820,7 +2824,7 @@
         <v>129</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>72</v>
@@ -2829,7 +2833,7 @@
         <v>130</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
@@ -2852,10 +2856,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>72</v>
@@ -2877,13 +2881,13 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2934,7 +2938,7 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
@@ -2957,7 +2961,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2980,13 +2984,13 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3037,7 +3041,7 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
@@ -3052,7 +3056,7 @@
         <v>72</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>72</v>
@@ -3060,7 +3064,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3131,7 +3135,7 @@
         <v>129</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>72</v>
@@ -3140,7 +3144,7 @@
         <v>130</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
@@ -3163,7 +3167,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3189,13 +3193,13 @@
         <v>96</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3203,7 +3207,7 @@
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>72</v>
@@ -3245,7 +3249,7 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>80</v>
@@ -3268,7 +3272,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3291,13 +3295,13 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3336,17 +3340,17 @@
         <v>72</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>73</v>
@@ -3369,10 +3373,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>72</v>
@@ -3394,13 +3398,13 @@
         <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3451,7 +3455,7 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>73</v>
@@ -3474,10 +3478,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>72</v>
@@ -3499,13 +3503,13 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3556,7 +3560,7 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
@@ -3579,10 +3583,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>72</v>
@@ -3604,13 +3608,13 @@
         <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3661,7 +3665,7 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
@@ -3684,10 +3688,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>72</v>
@@ -3709,13 +3713,13 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3766,7 +3770,7 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
@@ -3789,10 +3793,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>72</v>
@@ -3814,13 +3818,13 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3871,7 +3875,7 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
@@ -3894,10 +3898,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>72</v>
@@ -3919,13 +3923,13 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3976,7 +3980,7 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>73</v>
@@ -3999,10 +4003,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>72</v>
@@ -4024,13 +4028,13 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4081,7 +4085,7 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
@@ -4104,7 +4108,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4127,13 +4131,13 @@
         <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4184,7 +4188,7 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
@@ -4199,7 +4203,7 @@
         <v>72</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>72</v>
@@ -4207,7 +4211,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4215,7 +4219,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>74</v>
@@ -4278,7 +4282,7 @@
         <v>129</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>72</v>
@@ -4287,7 +4291,7 @@
         <v>130</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>73</v>
@@ -4310,10 +4314,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>72</v>
@@ -4335,13 +4339,13 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4392,7 +4396,7 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
@@ -4415,7 +4419,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4438,13 +4442,13 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4495,7 +4499,7 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>73</v>
@@ -4510,7 +4514,7 @@
         <v>72</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>72</v>
@@ -4518,7 +4522,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4589,7 +4593,7 @@
         <v>129</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>72</v>
@@ -4598,7 +4602,7 @@
         <v>130</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
@@ -4621,7 +4625,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4647,13 +4651,13 @@
         <v>96</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4661,7 +4665,7 @@
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>72</v>
@@ -4703,7 +4707,7 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>80</v>
@@ -4726,7 +4730,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4749,13 +4753,13 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4794,17 +4798,17 @@
         <v>72</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AB31" s="2"/>
       <c r="AC31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
@@ -4827,10 +4831,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>72</v>
@@ -4852,13 +4856,13 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4909,7 +4913,7 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
@@ -4932,10 +4936,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>72</v>
@@ -4957,13 +4961,13 @@
         <v>72</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5014,7 +5018,7 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
@@ -5037,10 +5041,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>72</v>
@@ -5062,13 +5066,13 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5119,7 +5123,7 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>73</v>
@@ -5142,10 +5146,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>72</v>
@@ -5167,13 +5171,13 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5224,7 +5228,7 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
@@ -5247,7 +5251,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5273,13 +5277,13 @@
         <v>96</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5287,7 +5291,7 @@
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>72</v>
@@ -5329,7 +5333,7 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>80</v>
@@ -5352,7 +5356,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5375,13 +5379,13 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5432,7 +5436,7 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
@@ -5455,7 +5459,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5481,13 +5485,13 @@
         <v>96</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5495,7 +5499,7 @@
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>72</v>
@@ -5537,7 +5541,7 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>80</v>
@@ -5560,7 +5564,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5583,13 +5587,13 @@
         <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5640,7 +5644,7 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
@@ -5663,11 +5667,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5689,16 +5693,16 @@
         <v>126</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>72</v>
@@ -5747,7 +5751,7 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
@@ -5770,7 +5774,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5793,17 +5797,17 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>72</v>
@@ -5852,7 +5856,7 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
@@ -5867,15 +5871,15 @@
         <v>93</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5898,13 +5902,13 @@
         <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5955,7 +5959,7 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
@@ -5970,7 +5974,7 @@
         <v>72</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>72</v>
@@ -5978,11 +5982,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6004,13 +6008,13 @@
         <v>126</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6051,7 +6055,7 @@
         <v>129</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>72</v>
@@ -6060,7 +6064,7 @@
         <v>130</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
@@ -6075,7 +6079,7 @@
         <v>132</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>72</v>
@@ -6083,7 +6087,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6109,16 +6113,16 @@
         <v>102</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>72</v>
@@ -6143,13 +6147,13 @@
         <v>72</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>72</v>
@@ -6167,7 +6171,7 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>73</v>
@@ -6182,7 +6186,7 @@
         <v>93</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>72</v>
@@ -6190,7 +6194,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6213,19 +6217,19 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>72</v>
@@ -6250,11 +6254,11 @@
         <v>72</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>72</v>
@@ -6272,7 +6276,7 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
@@ -6287,7 +6291,7 @@
         <v>93</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>72</v>
@@ -6295,7 +6299,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6321,16 +6325,16 @@
         <v>96</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>72</v>
@@ -6343,7 +6347,7 @@
         <v>72</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>72</v>
@@ -6379,7 +6383,7 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
@@ -6394,7 +6398,7 @@
         <v>93</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>72</v>
@@ -6402,7 +6406,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6425,16 +6429,16 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6448,7 +6452,7 @@
         <v>72</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>72</v>
@@ -6484,7 +6488,7 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>73</v>
@@ -6499,7 +6503,7 @@
         <v>93</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>72</v>
@@ -6507,7 +6511,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6530,13 +6534,13 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6587,7 +6591,7 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>73</v>
@@ -6602,7 +6606,7 @@
         <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>72</v>
@@ -6610,7 +6614,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6633,16 +6637,16 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6692,7 +6696,7 @@
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
@@ -6707,7 +6711,7 @@
         <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>72</v>
@@ -6715,7 +6719,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6741,10 +6745,10 @@
         <v>102</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6771,13 +6775,13 @@
         <v>72</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>72</v>
@@ -6795,7 +6799,7 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>73</v>
@@ -6810,15 +6814,15 @@
         <v>93</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6841,13 +6845,13 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6877,10 +6881,10 @@
         <v>106</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>72</v>
@@ -6898,7 +6902,7 @@
         <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>73</v>
@@ -6913,15 +6917,15 @@
         <v>93</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6944,16 +6948,16 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7003,7 +7007,7 @@
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
@@ -7018,7 +7022,7 @@
         <v>93</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>72</v>
@@ -7026,7 +7030,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7049,19 +7053,19 @@
         <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>72</v>
@@ -7110,7 +7114,7 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
@@ -7125,7 +7129,7 @@
         <v>93</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>72</v>
@@ -7133,7 +7137,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7156,17 +7160,17 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>72</v>
@@ -7215,7 +7219,7 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>73</v>
@@ -7230,7 +7234,7 @@
         <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>72</v>
@@ -7238,7 +7242,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7264,16 +7268,16 @@
         <v>102</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>72</v>
@@ -7298,13 +7302,13 @@
         <v>72</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>72</v>
@@ -7322,7 +7326,7 @@
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>73</v>
@@ -7337,15 +7341,15 @@
         <v>93</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7368,13 +7372,13 @@
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7401,13 +7405,13 @@
         <v>72</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>72</v>
@@ -7425,7 +7429,7 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>73</v>
@@ -7440,15 +7444,15 @@
         <v>93</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7471,13 +7475,13 @@
         <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7528,7 +7532,7 @@
         <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>73</v>
@@ -7543,7 +7547,7 @@
         <v>93</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>72</v>
@@ -7551,7 +7555,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7574,19 +7578,19 @@
         <v>72</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>72</v>
@@ -7635,7 +7639,7 @@
         <v>72</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>73</v>
@@ -7650,7 +7654,7 @@
         <v>93</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>72</v>
@@ -7658,7 +7662,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7681,17 +7685,17 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>72</v>
@@ -7716,13 +7720,13 @@
         <v>72</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>72</v>
@@ -7740,7 +7744,7 @@
         <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>73</v>
@@ -7755,15 +7759,15 @@
         <v>93</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7786,17 +7790,17 @@
         <v>72</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>72</v>
@@ -7845,7 +7849,7 @@
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>73</v>
@@ -7860,7 +7864,7 @@
         <v>93</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>72</v>
@@ -7868,7 +7872,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7891,13 +7895,13 @@
         <v>72</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7948,7 +7952,7 @@
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>73</v>
@@ -7963,7 +7967,7 @@
         <v>72</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>72</v>
@@ -7971,11 +7975,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -7997,13 +8001,13 @@
         <v>126</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8053,7 +8057,7 @@
         <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>73</v>
@@ -8068,7 +8072,7 @@
         <v>132</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>72</v>
@@ -8076,11 +8080,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8102,16 +8106,16 @@
         <v>126</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>72</v>
@@ -8160,7 +8164,7 @@
         <v>72</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>73</v>
@@ -8183,7 +8187,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8206,13 +8210,13 @@
         <v>72</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8263,7 +8267,7 @@
         <v>72</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>80</v>
@@ -8278,7 +8282,7 @@
         <v>93</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>72</v>
@@ -8286,7 +8290,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8309,13 +8313,13 @@
         <v>72</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8366,7 +8370,7 @@
         <v>72</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>80</v>
@@ -8381,7 +8385,7 @@
         <v>93</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>72</v>
@@ -8389,7 +8393,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8412,13 +8416,13 @@
         <v>72</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8469,7 +8473,7 @@
         <v>72</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>73</v>
@@ -8484,7 +8488,7 @@
         <v>93</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>72</v>
@@ -8492,7 +8496,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8515,19 +8519,19 @@
         <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>72</v>
@@ -8576,7 +8580,7 @@
         <v>72</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>73</v>
@@ -8591,7 +8595,7 @@
         <v>93</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>72</v>
@@ -8599,7 +8603,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8622,17 +8626,17 @@
         <v>72</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>72</v>
@@ -8681,7 +8685,7 @@
         <v>72</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>73</v>
@@ -8696,7 +8700,7 @@
         <v>93</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>72</v>
@@ -8704,7 +8708,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8727,16 +8731,16 @@
         <v>72</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -8786,7 +8790,7 @@
         <v>72</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>73</v>
@@ -8801,7 +8805,7 @@
         <v>93</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>72</v>
@@ -8809,7 +8813,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8832,13 +8836,13 @@
         <v>72</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8889,7 +8893,7 @@
         <v>72</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>73</v>
@@ -8904,7 +8908,7 @@
         <v>72</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>72</v>
@@ -8912,11 +8916,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -8938,13 +8942,13 @@
         <v>126</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -8994,7 +8998,7 @@
         <v>72</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>73</v>
@@ -9009,7 +9013,7 @@
         <v>132</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>72</v>
@@ -9017,11 +9021,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9043,16 +9047,16 @@
         <v>126</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>72</v>
@@ -9101,7 +9105,7 @@
         <v>72</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>73</v>
@@ -9124,7 +9128,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9150,10 +9154,10 @@
         <v>102</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9180,13 +9184,13 @@
         <v>72</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>72</v>
@@ -9204,7 +9208,7 @@
         <v>72</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>73</v>
@@ -9219,7 +9223,7 @@
         <v>93</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>72</v>
@@ -9227,7 +9231,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9250,13 +9254,13 @@
         <v>72</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9307,7 +9311,7 @@
         <v>72</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>73</v>
@@ -9322,7 +9326,7 @@
         <v>93</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>72</v>
@@ -9330,7 +9334,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9353,13 +9357,13 @@
         <v>72</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9410,7 +9414,7 @@
         <v>72</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>73</v>
@@ -9425,7 +9429,7 @@
         <v>93</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>72</v>
@@ -9433,7 +9437,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9456,13 +9460,13 @@
         <v>72</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9513,7 +9517,7 @@
         <v>72</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>73</v>
@@ -9528,7 +9532,7 @@
         <v>93</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>72</v>
@@ -9536,7 +9540,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9559,13 +9563,13 @@
         <v>72</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9616,7 +9620,7 @@
         <v>72</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>73</v>
@@ -9631,7 +9635,7 @@
         <v>93</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>72</v>
@@ -9639,7 +9643,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9662,17 +9666,17 @@
         <v>72</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>72</v>
@@ -9721,7 +9725,7 @@
         <v>72</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>73</v>
@@ -9736,7 +9740,7 @@
         <v>93</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>72</v>

--- a/StructureDefinition-cdm-match-location.xlsx
+++ b/StructureDefinition-cdm-match-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="397">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/cdm-match-location</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-match-location</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -244,10 +244,6 @@
   </si>
   <si>
     <t>Details and position information for a physical place where services are provided and resources and participants may be stored, found, contained, or accommodated.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>.Role[classCode=SDLC]</t>
@@ -281,7 +277,7 @@
     <t>Location.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+    <t xml:space="preserve">Meta {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-meta}
 </t>
   </si>
   <si>
@@ -431,7 +427,7 @@
     <t>seeAlso</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/see-also}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/see-also}
 </t>
   </si>
   <si>
@@ -469,7 +465,7 @@
     <t>matchSourceReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/match-source-reference}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/match-source-reference}
 </t>
   </si>
   <si>
@@ -497,7 +493,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/match-source-reference</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/match-source-reference</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -536,7 +532,7 @@
     <t>matchMethod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/match-method}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/match-method}
 </t>
   </si>
   <si>
@@ -546,7 +542,7 @@
     <t>splitMethod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/split-method}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/split-method}
 </t>
   </si>
   <si>
@@ -556,7 +552,7 @@
     <t>matchConfidenceLevel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/match-confidence-level}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/match-confidence-level}
 </t>
   </si>
   <si>
@@ -566,7 +562,7 @@
     <t>matchConfidenceScore</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/match-confidence-score}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/match-confidence-score}
 </t>
   </si>
   <si>
@@ -576,7 +572,7 @@
     <t>matchPeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/match-period}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/match-period}
 </t>
   </si>
   <si>
@@ -586,7 +582,7 @@
     <t>matchDetail</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/match-detail}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/match-detail}
 </t>
   </si>
   <si>
@@ -602,7 +598,7 @@
     <t>matchComparedTo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/match-compared-to}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/match-compared-to}
 </t>
   </si>
   <si>
@@ -621,7 +617,7 @@
     <t>Location.extension.extension.extension.url</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/match-compared-to</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/match-compared-to</t>
   </si>
   <si>
     <t>Location.extension.extension.extension.value[x]</t>
@@ -630,7 +626,7 @@
     <t>matchCriteria</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/match-criteria}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/match-criteria}
 </t>
   </si>
   <si>
@@ -643,7 +639,7 @@
     <t>Confidence score for the match</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/match-detail</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/match-detail</t>
   </si>
   <si>
     <t>base64Binary
@@ -653,7 +649,7 @@
     <t>Location.extension.url</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/see-also</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/see-also</t>
   </si>
   <si>
     <t>Location.extension.value[x]</t>
@@ -768,7 +764,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/identifier-type</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1805,10 +1801,10 @@
         <v>72</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>72</v>
@@ -1816,7 +1812,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1827,28 +1823,28 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1898,13 +1894,13 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -1921,7 +1917,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1932,7 +1928,7 @@
         <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>72</v>
@@ -1944,13 +1940,13 @@
         <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2001,22 +1997,22 @@
         <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH4" t="s" s="2">
+      <c r="AI4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AI4" t="s" s="2">
+      <c r="AJ4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>72</v>
@@ -2024,7 +2020,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2035,28 +2031,28 @@
         <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2106,19 +2102,19 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>72</v>
@@ -2129,7 +2125,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2140,7 +2136,7 @@
         <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>72</v>
@@ -2152,16 +2148,16 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2187,43 +2183,43 @@
         <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>72</v>
@@ -2234,18 +2230,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
@@ -2257,16 +2253,16 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2316,22 +2312,22 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>72</v>
@@ -2339,11 +2335,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2362,16 +2358,16 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2421,7 +2417,7 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
@@ -2436,7 +2432,7 @@
         <v>72</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>72</v>
@@ -2444,7 +2440,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2467,13 +2463,13 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2512,17 +2508,17 @@
         <v>72</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>73</v>
@@ -2534,7 +2530,7 @@
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>72</v>
@@ -2545,10 +2541,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>72</v>
@@ -2570,13 +2566,13 @@
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2627,7 +2623,7 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
@@ -2636,10 +2632,10 @@
         <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>72</v>
@@ -2650,7 +2646,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2661,7 +2657,7 @@
         <v>73</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>72</v>
@@ -2673,13 +2669,13 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2730,22 +2726,22 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>72</v>
@@ -2753,7 +2749,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2761,7 +2757,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>74</v>
@@ -2776,13 +2772,13 @@
         <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2821,19 +2817,19 @@
         <v>72</v>
       </c>
       <c r="AA12" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD12" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AB12" t="s" s="2">
+      <c r="AE12" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
@@ -2845,7 +2841,7 @@
         <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>72</v>
@@ -2856,20 +2852,20 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>72</v>
@@ -2881,13 +2877,13 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2938,7 +2934,7 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
@@ -2950,7 +2946,7 @@
         <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>72</v>
@@ -2961,7 +2957,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2972,7 +2968,7 @@
         <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>72</v>
@@ -2984,13 +2980,13 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3041,22 +3037,22 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>72</v>
@@ -3064,7 +3060,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3087,13 +3083,13 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3132,19 +3128,19 @@
         <v>72</v>
       </c>
       <c r="AA15" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD15" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AB15" t="s" s="2">
+      <c r="AE15" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
@@ -3156,7 +3152,7 @@
         <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>72</v>
@@ -3167,7 +3163,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3175,10 +3171,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>72</v>
@@ -3190,16 +3186,16 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3207,55 +3203,55 @@
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="R16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>156</v>
-      </c>
       <c r="AF16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>72</v>
@@ -3264,7 +3260,7 @@
         <v>72</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>72</v>
@@ -3272,7 +3268,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3283,7 +3279,7 @@
         <v>73</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>72</v>
@@ -3295,13 +3291,13 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3340,32 +3336,32 @@
         <v>72</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD17" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AE17" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="AF17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>72</v>
@@ -3373,10 +3369,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>72</v>
@@ -3386,7 +3382,7 @@
         <v>73</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>72</v>
@@ -3398,13 +3394,13 @@
         <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3455,22 +3451,22 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI18" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>72</v>
@@ -3478,10 +3474,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>72</v>
@@ -3491,7 +3487,7 @@
         <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>72</v>
@@ -3503,13 +3499,13 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="L19" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3560,7 +3556,7 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
@@ -3572,7 +3568,7 @@
         <v>72</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>72</v>
@@ -3583,10 +3579,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>72</v>
@@ -3596,7 +3592,7 @@
         <v>73</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>72</v>
@@ -3608,13 +3604,13 @@
         <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="L20" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3665,7 +3661,7 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
@@ -3677,7 +3673,7 @@
         <v>72</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>72</v>
@@ -3688,10 +3684,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>72</v>
@@ -3701,7 +3697,7 @@
         <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>72</v>
@@ -3713,13 +3709,13 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="L21" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3770,7 +3766,7 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
@@ -3782,7 +3778,7 @@
         <v>72</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>72</v>
@@ -3793,10 +3789,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>72</v>
@@ -3806,7 +3802,7 @@
         <v>73</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>72</v>
@@ -3818,13 +3814,13 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="L22" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3875,7 +3871,7 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
@@ -3887,7 +3883,7 @@
         <v>72</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>72</v>
@@ -3898,10 +3894,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>72</v>
@@ -3911,7 +3907,7 @@
         <v>73</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>72</v>
@@ -3923,13 +3919,13 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="L23" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3980,7 +3976,7 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>73</v>
@@ -3992,7 +3988,7 @@
         <v>72</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>72</v>
@@ -4003,10 +3999,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>72</v>
@@ -4028,13 +4024,13 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4085,7 +4081,7 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
@@ -4097,7 +4093,7 @@
         <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>72</v>
@@ -4108,7 +4104,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4119,7 +4115,7 @@
         <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>72</v>
@@ -4131,13 +4127,13 @@
         <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4188,22 +4184,22 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>72</v>
@@ -4211,7 +4207,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4219,7 +4215,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>74</v>
@@ -4234,13 +4230,13 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4279,19 +4275,19 @@
         <v>72</v>
       </c>
       <c r="AA26" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD26" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AB26" t="s" s="2">
+      <c r="AE26" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>73</v>
@@ -4303,7 +4299,7 @@
         <v>72</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>72</v>
@@ -4314,17 +4310,17 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>74</v>
@@ -4339,13 +4335,13 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4396,7 +4392,7 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
@@ -4408,7 +4404,7 @@
         <v>72</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>72</v>
@@ -4419,7 +4415,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4430,7 +4426,7 @@
         <v>73</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>72</v>
@@ -4442,13 +4438,13 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4499,22 +4495,22 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>72</v>
@@ -4522,7 +4518,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4545,13 +4541,13 @@
         <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4590,19 +4586,19 @@
         <v>72</v>
       </c>
       <c r="AA29" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD29" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AB29" t="s" s="2">
+      <c r="AE29" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
@@ -4614,7 +4610,7 @@
         <v>72</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>72</v>
@@ -4625,7 +4621,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4633,10 +4629,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>72</v>
@@ -4648,16 +4644,16 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4665,7 +4661,7 @@
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>72</v>
@@ -4707,13 +4703,13 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>72</v>
@@ -4722,7 +4718,7 @@
         <v>72</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>72</v>
@@ -4730,7 +4726,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4741,7 +4737,7 @@
         <v>73</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>72</v>
@@ -4753,13 +4749,13 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4798,32 +4794,32 @@
         <v>72</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AB31" s="2"/>
       <c r="AC31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD31" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AE31" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>72</v>
@@ -4831,10 +4827,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>72</v>
@@ -4844,7 +4840,7 @@
         <v>73</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>72</v>
@@ -4856,13 +4852,13 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4913,22 +4909,22 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>72</v>
@@ -4936,20 +4932,20 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>72</v>
@@ -4961,13 +4957,13 @@
         <v>72</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K33" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="L33" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5018,7 +5014,7 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
@@ -5030,7 +5026,7 @@
         <v>72</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>72</v>
@@ -5041,10 +5037,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>72</v>
@@ -5054,7 +5050,7 @@
         <v>73</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>72</v>
@@ -5066,13 +5062,13 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5123,7 +5119,7 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>73</v>
@@ -5135,7 +5131,7 @@
         <v>72</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>72</v>
@@ -5146,10 +5142,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>72</v>
@@ -5159,7 +5155,7 @@
         <v>73</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>72</v>
@@ -5171,13 +5167,13 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5228,7 +5224,7 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
@@ -5240,7 +5236,7 @@
         <v>72</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>72</v>
@@ -5251,7 +5247,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5259,10 +5255,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>72</v>
@@ -5274,16 +5270,16 @@
         <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5291,7 +5287,7 @@
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>72</v>
@@ -5333,13 +5329,13 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>72</v>
@@ -5348,7 +5344,7 @@
         <v>72</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>72</v>
@@ -5356,7 +5352,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5379,13 +5375,13 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5436,22 +5432,22 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>72</v>
@@ -5459,7 +5455,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5467,10 +5463,10 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>72</v>
@@ -5482,16 +5478,16 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5499,7 +5495,7 @@
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>72</v>
@@ -5541,13 +5537,13 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>72</v>
@@ -5556,7 +5552,7 @@
         <v>72</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>72</v>
@@ -5564,7 +5560,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5587,13 +5583,13 @@
         <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5644,22 +5640,22 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>72</v>
@@ -5667,11 +5663,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5684,25 +5680,25 @@
         <v>72</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>72</v>
@@ -5751,7 +5747,7 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
@@ -5763,10 +5759,10 @@
         <v>72</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>72</v>
@@ -5774,7 +5770,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5782,7 +5778,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>74</v>
@@ -5794,20 +5790,20 @@
         <v>72</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>72</v>
@@ -5856,7 +5852,7 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
@@ -5868,18 +5864,18 @@
         <v>72</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5890,7 +5886,7 @@
         <v>73</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>72</v>
@@ -5902,13 +5898,13 @@
         <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5959,22 +5955,22 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>72</v>
@@ -5982,11 +5978,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6005,16 +6001,16 @@
         <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>222</v>
-      </c>
       <c r="M43" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6052,19 +6048,19 @@
         <v>72</v>
       </c>
       <c r="AA43" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD43" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AB43" t="s" s="2">
+      <c r="AE43" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
@@ -6076,10 +6072,10 @@
         <v>72</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>72</v>
@@ -6087,7 +6083,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6098,31 +6094,31 @@
         <v>73</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H44" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I44" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>72</v>
@@ -6147,46 +6143,46 @@
         <v>72</v>
       </c>
       <c r="W44" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="X44" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="X44" t="s" s="2">
+      <c r="Y44" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="Y44" t="s" s="2">
+      <c r="Z44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE44" t="s" s="2">
+      <c r="AF44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>72</v>
@@ -6194,7 +6190,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6205,31 +6201,31 @@
         <v>73</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J45" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>72</v>
@@ -6254,44 +6250,44 @@
         <v>72</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>241</v>
-      </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>72</v>
@@ -6299,7 +6295,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6307,34 +6303,34 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>72</v>
@@ -6347,58 +6343,58 @@
         <v>72</v>
       </c>
       <c r="S46" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE46" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="T46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE46" t="s" s="2">
+      <c r="AF46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>72</v>
@@ -6406,7 +6402,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6414,31 +6410,31 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6452,58 +6448,58 @@
         <v>72</v>
       </c>
       <c r="S47" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="T47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE47" t="s" s="2">
+      <c r="AF47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>72</v>
@@ -6511,7 +6507,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6522,25 +6518,25 @@
         <v>73</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J48" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6591,22 +6587,22 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>72</v>
@@ -6614,7 +6610,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6625,28 +6621,28 @@
         <v>73</v>
       </c>
       <c r="F49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J49" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6696,22 +6692,22 @@
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>72</v>
@@ -6719,7 +6715,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6736,19 +6732,19 @@
         <v>72</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6775,54 +6771,54 @@
         <v>72</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Y50" t="s" s="2">
+      <c r="Z50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
+      <c r="AK50" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>276</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6842,16 +6838,16 @@
         <v>72</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6878,14 +6874,14 @@
         <v>72</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>72</v>
       </c>
@@ -6902,30 +6898,30 @@
         <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6936,28 +6932,28 @@
         <v>73</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7007,22 +7003,22 @@
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>72</v>
@@ -7030,7 +7026,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7053,19 +7049,19 @@
         <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>72</v>
@@ -7114,7 +7110,7 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
@@ -7126,10 +7122,10 @@
         <v>72</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>72</v>
@@ -7137,7 +7133,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7157,20 +7153,20 @@
         <v>72</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>72</v>
@@ -7219,22 +7215,22 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>72</v>
@@ -7242,7 +7238,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7262,22 +7258,22 @@
         <v>72</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>72</v>
@@ -7302,54 +7298,54 @@
         <v>72</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y55" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Z55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
+      <c r="AK55" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>305</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7369,16 +7365,16 @@
         <v>72</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7405,14 +7401,14 @@
         <v>72</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="Y56" t="s" s="2">
-        <v>309</v>
-      </c>
       <c r="Z56" t="s" s="2">
         <v>72</v>
       </c>
@@ -7429,7 +7425,7 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>73</v>
@@ -7441,18 +7437,18 @@
         <v>72</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7475,13 +7471,13 @@
         <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7532,7 +7528,7 @@
         <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>73</v>
@@ -7544,10 +7540,10 @@
         <v>72</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>72</v>
@@ -7555,7 +7551,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7578,19 +7574,19 @@
         <v>72</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>72</v>
@@ -7639,22 +7635,22 @@
         <v>72</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>72</v>
@@ -7662,7 +7658,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7682,20 +7678,20 @@
         <v>72</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>72</v>
@@ -7720,54 +7716,54 @@
         <v>72</v>
       </c>
       <c r="W59" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="X59" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="X59" t="s" s="2">
+      <c r="Y59" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="Y59" t="s" s="2">
+      <c r="Z59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="AK59" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7790,17 +7786,17 @@
         <v>72</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>72</v>
@@ -7849,22 +7845,22 @@
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>72</v>
@@ -7872,7 +7868,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7883,7 +7879,7 @@
         <v>73</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>72</v>
@@ -7895,13 +7891,13 @@
         <v>72</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7952,22 +7948,22 @@
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>72</v>
@@ -7975,11 +7971,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -7998,16 +7994,16 @@
         <v>72</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>222</v>
-      </c>
       <c r="M62" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8057,7 +8053,7 @@
         <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>73</v>
@@ -8069,10 +8065,10 @@
         <v>72</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>72</v>
@@ -8080,11 +8076,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8097,25 +8093,25 @@
         <v>72</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="M63" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>72</v>
@@ -8164,7 +8160,7 @@
         <v>72</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>73</v>
@@ -8176,10 +8172,10 @@
         <v>72</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>72</v>
@@ -8187,7 +8183,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8195,10 +8191,10 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>72</v>
@@ -8210,13 +8206,13 @@
         <v>72</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8267,22 +8263,22 @@
         <v>72</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>72</v>
@@ -8290,7 +8286,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8298,10 +8294,10 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>72</v>
@@ -8313,13 +8309,13 @@
         <v>72</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8370,22 +8366,22 @@
         <v>72</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>72</v>
@@ -8393,7 +8389,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8404,7 +8400,7 @@
         <v>73</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>72</v>
@@ -8416,13 +8412,13 @@
         <v>72</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8473,22 +8469,22 @@
         <v>72</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>72</v>
@@ -8496,7 +8492,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8516,22 +8512,22 @@
         <v>72</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>72</v>
@@ -8580,22 +8576,22 @@
         <v>72</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>72</v>
@@ -8603,7 +8599,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8626,17 +8622,17 @@
         <v>72</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>72</v>
@@ -8685,22 +8681,22 @@
         <v>72</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>72</v>
@@ -8708,7 +8704,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8731,16 +8727,16 @@
         <v>72</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -8790,7 +8786,7 @@
         <v>72</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>73</v>
@@ -8802,10 +8798,10 @@
         <v>72</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>72</v>
@@ -8813,7 +8809,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8824,7 +8820,7 @@
         <v>73</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>72</v>
@@ -8836,13 +8832,13 @@
         <v>72</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8893,22 +8889,22 @@
         <v>72</v>
       </c>
       <c r="AE70" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>72</v>
@@ -8916,11 +8912,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -8939,16 +8935,16 @@
         <v>72</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L71" t="s" s="2">
-        <v>222</v>
-      </c>
       <c r="M71" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -8998,7 +8994,7 @@
         <v>72</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>73</v>
@@ -9010,10 +9006,10 @@
         <v>72</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>72</v>
@@ -9021,11 +9017,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9038,25 +9034,25 @@
         <v>72</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L72" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="M72" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>72</v>
@@ -9105,7 +9101,7 @@
         <v>72</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>73</v>
@@ -9117,10 +9113,10 @@
         <v>72</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>72</v>
@@ -9128,7 +9124,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9151,13 +9147,13 @@
         <v>72</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9184,14 +9180,14 @@
         <v>72</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Y73" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="Z73" t="s" s="2">
         <v>72</v>
       </c>
@@ -9208,7 +9204,7 @@
         <v>72</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>73</v>
@@ -9220,10 +9216,10 @@
         <v>72</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>72</v>
@@ -9231,7 +9227,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9242,7 +9238,7 @@
         <v>73</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>72</v>
@@ -9254,13 +9250,13 @@
         <v>72</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9311,22 +9307,22 @@
         <v>72</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>72</v>
@@ -9334,7 +9330,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9345,7 +9341,7 @@
         <v>73</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>72</v>
@@ -9357,13 +9353,13 @@
         <v>72</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9414,22 +9410,22 @@
         <v>72</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>72</v>
@@ -9437,7 +9433,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9448,7 +9444,7 @@
         <v>73</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>72</v>
@@ -9460,13 +9456,13 @@
         <v>72</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9517,22 +9513,22 @@
         <v>72</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>72</v>
@@ -9540,7 +9536,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9563,13 +9559,13 @@
         <v>72</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9620,22 +9616,22 @@
         <v>72</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>72</v>
@@ -9643,7 +9639,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9666,17 +9662,17 @@
         <v>72</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="L78" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>72</v>
@@ -9725,7 +9721,7 @@
         <v>72</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>73</v>
@@ -9737,10 +9733,10 @@
         <v>72</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>72</v>
